--- a/spec/fixtures/files/mitglieder_aktive.xlsx
+++ b/spec/fixtures/files/mitglieder_aktive.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
   <si>
     <t xml:space="preserve">Mitgliedernummer</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">213134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12345</t>
   </si>
   <si>
     <t xml:space="preserve">HERR</t>
@@ -423,12 +426,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,10 +527,10 @@
   <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -660,328 +667,328 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="K2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="P2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>21916</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="0" t="s">
+      <c r="R2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="S2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="T2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="U2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="V2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="W2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="X2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>40179</v>
       </c>
-      <c r="AB2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AB2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="2" t="n">
         <v>1951</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>29586</v>
       </c>
-      <c r="AN2" s="2"/>
+      <c r="AN2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="K3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="M3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="N3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="O3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="P3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="3" t="n">
         <v>15124</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="0" t="s">
+      <c r="R3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="0" t="s">
+      <c r="T3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="0" t="s">
+      <c r="V3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="X3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="2" t="n">
         <v>1964</v>
       </c>
-      <c r="AD3" s="2" t="n">
+      <c r="AD3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AN3" s="2"/>
+      <c r="AN3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="3" t="n">
         <v>12463</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="0" t="s">
+      <c r="R4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" s="0" t="s">
+      <c r="V4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="X4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="2" t="n">
         <v>1971</v>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AD4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AN4" s="2"/>
+      <c r="AN4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="K5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="P5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="3" t="n">
         <v>12463</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" s="0" t="s">
+      <c r="R5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" s="0" t="s">
+      <c r="V5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="X5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="2" t="n">
         <v>1971</v>
       </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AD5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AN5" s="2"/>
+      <c r="AN5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="F6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="G6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" s="2" t="n">
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="3" t="n">
         <v>12463</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="0" t="s">
+      <c r="R6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="0" t="s">
+      <c r="S6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="X6" s="0" t="s">
+      <c r="V6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="X6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC6" s="2" t="n">
         <v>1971</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AD6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AN6" s="2"/>
+      <c r="AN6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
